--- a/data - Copie.xlsx
+++ b/data - Copie.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bertrand\PYTHON3\VALEO_GA\VALEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{068536A9-75B1-4DB3-9570-C356C07F1EA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FADB2FD4-2C35-4158-A684-FD89163489C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="confs" sheetId="1" r:id="rId1"/>
     <sheet name="map" sheetId="9" r:id="rId2"/>
+    <sheet name="map (2)" sheetId="10" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="72">
   <si>
     <t>Composants</t>
   </si>
@@ -1046,8 +1047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F848A8BD-D29C-4474-9AF8-726898719083}">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1090,11 +1091,11 @@
       <c r="K1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="2">
+        <v>1</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="N1" s="2">
         <v>1</v>
@@ -1246,7 +1247,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
@@ -1289,6 +1290,977 @@
       </c>
       <c r="O5" s="2" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0</v>
+      </c>
+      <c r="O13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0</v>
+      </c>
+      <c r="N14" s="2">
+        <v>0</v>
+      </c>
+      <c r="O14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0</v>
+      </c>
+      <c r="N15" s="2">
+        <v>0</v>
+      </c>
+      <c r="O15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0</v>
+      </c>
+      <c r="N16" s="2">
+        <v>0</v>
+      </c>
+      <c r="O16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0</v>
+      </c>
+      <c r="N17" s="2">
+        <v>0</v>
+      </c>
+      <c r="O17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0</v>
+      </c>
+      <c r="N18" s="2">
+        <v>0</v>
+      </c>
+      <c r="O18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0</v>
+      </c>
+      <c r="M19" s="2">
+        <v>0</v>
+      </c>
+      <c r="N19" s="2">
+        <v>0</v>
+      </c>
+      <c r="O19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>1</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1</v>
+      </c>
+      <c r="I20" s="2">
+        <v>1</v>
+      </c>
+      <c r="J20" s="2">
+        <v>1</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L20" s="2">
+        <v>1</v>
+      </c>
+      <c r="M20" s="2">
+        <v>1</v>
+      </c>
+      <c r="N20" s="2">
+        <v>1</v>
+      </c>
+      <c r="O20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A3:A20 A2:N2 B20:O20 O2:O19 A1:O1 B3:N19">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5D53A3-C2B4-40E5-B4A3-A8B515CC1ABF}">
+  <dimension ref="A1:O20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="10" width="3.85546875" style="2" customWidth="1"/>
+    <col min="11" max="15" width="3.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="2">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2">
+        <v>1</v>
+      </c>
+      <c r="H1" s="2">
+        <v>1</v>
+      </c>
+      <c r="I1" s="2">
+        <v>1</v>
+      </c>
+      <c r="J1" s="2">
+        <v>1</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1" s="2">
+        <v>1</v>
+      </c>
+      <c r="M1" s="2">
+        <v>1</v>
+      </c>
+      <c r="N1" s="2">
+        <v>1</v>
+      </c>
+      <c r="O1" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -1617,7 +2589,7 @@
         <v>0</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -1960,28 +2932,28 @@
         <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1</v>
+      </c>
+      <c r="I20" s="2">
+        <v>1</v>
+      </c>
+      <c r="J20" s="2">
+        <v>1</v>
+      </c>
+      <c r="K20" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="E20" s="2">
-        <v>1</v>
-      </c>
-      <c r="F20" s="2">
-        <v>1</v>
-      </c>
-      <c r="G20" s="2">
-        <v>1</v>
-      </c>
-      <c r="H20" s="2">
-        <v>1</v>
-      </c>
-      <c r="I20" s="2">
-        <v>1</v>
-      </c>
-      <c r="J20" s="2">
-        <v>1</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="L20" s="2">
         <v>1</v>
